--- a/gym-foo/gym_foo/results-10.xlsx
+++ b/gym-foo/gym_foo/results-10.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -419,25 +419,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C2">
-        <v>1989.524218229043</v>
+        <v>-87.54635026423951</v>
       </c>
       <c r="D2">
-        <v>8.221174455491912</v>
+        <v>-0.351591768129476</v>
       </c>
       <c r="E2">
-        <v>2657.548546292687</v>
+        <v>989.5916131745153</v>
       </c>
       <c r="F2">
-        <v>182.2314049586777</v>
+        <v>595.9839357429719</v>
       </c>
       <c r="G2">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="H2">
-        <v>6.214876033057851</v>
+        <v>6.044176706827309</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -445,25 +445,25 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>215</v>
+      </c>
+      <c r="C3">
+        <v>1850.833333254513</v>
+      </c>
+      <c r="D3">
+        <v>8.608527131416338</v>
+      </c>
+      <c r="E3">
+        <v>580.0356194693874</v>
+      </c>
+      <c r="F3">
         <v>300</v>
       </c>
-      <c r="C3">
-        <v>4833.333333333365</v>
-      </c>
-      <c r="D3">
-        <v>16.11111111111122</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>1500</v>
+        <v>1505</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -471,51 +471,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="C4">
-        <v>4833.333333333365</v>
+        <v>1970.833333333339</v>
       </c>
       <c r="D4">
-        <v>16.11111111111122</v>
+        <v>9.166666666666694</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G4">
-        <v>1500</v>
+        <v>1505</v>
       </c>
       <c r="H4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>300</v>
-      </c>
-      <c r="C5">
-        <v>4833.333333333365</v>
-      </c>
-      <c r="D5">
-        <v>16.11111111111122</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1500</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
